--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:05:42+00:00</t>
+    <t>2025-09-24T14:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T14:08:52+00:00</t>
+    <t>2025-10-01T08:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T08:29:05+00:00</t>
+    <t>2025-10-20T13:10:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12049" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14330" uniqueCount="683">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:10:23+00:00</t>
+    <t>2025-10-21T07:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1432,7 +1432,7 @@
     <t>DUIPractitioner</t>
   </si>
   <si>
-    <t>Encounter conforming to the TDDUIPractitioner profile, used to convey the practitioner.</t>
+    <t>Practitioner conforming to the TDDUIPractitioner profile, used to convey the practitioner.</t>
   </si>
   <si>
     <t>Bundle.entry:DUIPractitioner.id</t>
@@ -1550,7 +1550,7 @@
     <t>DUIPractitionerRole</t>
   </si>
   <si>
-    <t>Encounter conforming to the TDDUIPractitionerRole profile, used to convey the practitioner.</t>
+    <t>PractitionerRole conforming to the TDDUIPractitionerRole profile, used to convey the practitioner.</t>
   </si>
   <si>
     <t>Bundle.entry:DUIPractitionerRole.id</t>
@@ -1662,7 +1662,7 @@
     <t>DUITransportProfessionnel</t>
   </si>
   <si>
-    <t>Encounter conforming to the TDDUITaskTransportProfessionnel profile, used to convey the practitioner transportation.</t>
+    <t>Task conforming to the TDDUITaskTransportProfessionnel profile, used to convey the practitioner transportation.</t>
   </si>
   <si>
     <t>Bundle.entry:DUITransportProfessionnel.id</t>
@@ -1777,7 +1777,7 @@
     <t>DUITransportUsager</t>
   </si>
   <si>
-    <t>Encounter conforming to the TDDUITaskTransportUsager profile, used to convey the patient transportation.</t>
+    <t>Task conforming to the TDDUITaskTransportUsager profile, used to convey the patient transportation.</t>
   </si>
   <si>
     <t>Bundle.entry:DUITransportUsager.id</t>
@@ -1875,6 +1875,226 @@
   </si>
   <si>
     <t>Bundle.entry:DUITransportUsager.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference</t>
+  </si>
+  <si>
+    <t>DUIDocumentReference</t>
+  </si>
+  <si>
+    <t>DocumentReference conforming to the TDDUIDocumentReference profile, used to convey evaluation attachement</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentReference {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference}
+</t>
+  </si>
+  <si>
+    <t>A reference to a document</t>
+  </si>
+  <si>
+    <t>A reference to a document of any kind for any purpose. Provides metadata about the document so that the document can be discovered and managed. The scope of a document is any seralized object with a mime-type, so includes formal patient centric documents (CDA), cliical notes, scanned paper, and non-patient specific documents like policy text.</t>
+  </si>
+  <si>
+    <t>Usually, this is used for documents other than those defined by FHIR.</t>
+  </si>
+  <si>
+    <t>Document[classCode="DOC" and moodCode="EVN"]</t>
+  </si>
+  <si>
+    <t>when describing a CDA</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIDocumentReference.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>DUIQuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.resource</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:DUIQuestionnaireResponse.response.outcome</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -2198,7 +2418,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN337"/>
+  <dimension ref="A1:AN401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2207,9 +2427,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.91015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.83203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.37890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2217,7 +2437,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.8046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -40315,9 +40535,11 @@
         <v>604</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="C337" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C337" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="D337" t="s" s="2">
         <v>77</v>
       </c>
@@ -40326,7 +40548,7 @@
         <v>78</v>
       </c>
       <c r="G337" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H337" t="s" s="2">
         <v>77</v>
@@ -40338,20 +40560,16 @@
         <v>88</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>605</v>
+        <v>145</v>
       </c>
       <c r="L337" t="s" s="2">
         <v>606</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N337" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="O337" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N337" s="2"/>
+      <c r="O337" s="2"/>
       <c r="P337" t="s" s="2">
         <v>77</v>
       </c>
@@ -40399,30 +40617,7282 @@
         <v>77</v>
       </c>
       <c r="AF337" t="s" s="2">
-        <v>604</v>
+        <v>175</v>
       </c>
       <c r="AG337" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH337" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI337" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ337" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK337" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL337" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM337" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN337" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B338" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C338" s="2"/>
+      <c r="D338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E338" s="2"/>
+      <c r="F338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G338" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K338" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L338" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M338" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N338" s="2"/>
+      <c r="O338" s="2"/>
+      <c r="P338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q338" s="2"/>
+      <c r="R338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF338" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG338" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH338" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL338" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM338" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN338" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B339" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C339" s="2"/>
+      <c r="D339" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E339" s="2"/>
+      <c r="F339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G339" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K339" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L339" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M339" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N339" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O339" s="2"/>
+      <c r="P339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q339" s="2"/>
+      <c r="R339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF339" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG339" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH339" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ339" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL339" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM339" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN339" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B340" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C340" s="2"/>
+      <c r="D340" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E340" s="2"/>
+      <c r="F340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G340" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I340" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J340" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K340" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L340" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M340" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N340" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O340" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q340" s="2"/>
+      <c r="R340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF340" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG340" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH340" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ340" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL340" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM340" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN340" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B341" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C341" s="2"/>
+      <c r="D341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E341" s="2"/>
+      <c r="F341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J341" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K341" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L341" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M341" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N341" s="2"/>
+      <c r="O341" s="2"/>
+      <c r="P341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q341" s="2"/>
+      <c r="R341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF341" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG341" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH341" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ341" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK337" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL337" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM337" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN337" t="s" s="2">
+      <c r="AK341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM341" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN341" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B342" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C342" s="2"/>
+      <c r="D342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E342" s="2"/>
+      <c r="F342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G342" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J342" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K342" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L342" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M342" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N342" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O342" s="2"/>
+      <c r="P342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q342" s="2"/>
+      <c r="R342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF342" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG342" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH342" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ342" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM342" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN342" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B343" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C343" s="2"/>
+      <c r="D343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E343" s="2"/>
+      <c r="F343" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G343" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K343" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L343" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M343" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="N343" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="O343" s="2"/>
+      <c r="P343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q343" s="2"/>
+      <c r="R343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF343" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG343" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH343" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK343" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL343" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AM343" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AN343" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B344" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C344" s="2"/>
+      <c r="D344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E344" s="2"/>
+      <c r="F344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G344" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J344" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K344" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L344" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M344" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N344" s="2"/>
+      <c r="O344" s="2"/>
+      <c r="P344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q344" s="2"/>
+      <c r="R344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF344" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG344" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH344" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI344" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AJ344" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM344" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN344" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B345" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C345" s="2"/>
+      <c r="D345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E345" s="2"/>
+      <c r="F345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G345" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K345" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L345" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M345" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N345" s="2"/>
+      <c r="O345" s="2"/>
+      <c r="P345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q345" s="2"/>
+      <c r="R345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF345" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG345" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH345" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL345" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM345" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN345" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="B346" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C346" s="2"/>
+      <c r="D346" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E346" s="2"/>
+      <c r="F346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K346" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L346" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M346" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N346" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O346" s="2"/>
+      <c r="P346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q346" s="2"/>
+      <c r="R346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF346" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG346" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH346" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ346" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL346" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM346" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN346" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B347" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C347" s="2"/>
+      <c r="D347" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E347" s="2"/>
+      <c r="F347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I347" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J347" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K347" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L347" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M347" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N347" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O347" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q347" s="2"/>
+      <c r="R347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF347" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG347" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH347" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ347" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL347" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM347" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN347" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="B348" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C348" s="2"/>
+      <c r="D348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E348" s="2"/>
+      <c r="F348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G348" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J348" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K348" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L348" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M348" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N348" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O348" s="2"/>
+      <c r="P348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q348" s="2"/>
+      <c r="R348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X348" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y348" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z348" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF348" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG348" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH348" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ348" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM348" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN348" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B349" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C349" s="2"/>
+      <c r="D349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E349" s="2"/>
+      <c r="F349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G349" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J349" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K349" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L349" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M349" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N349" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O349" s="2"/>
+      <c r="P349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q349" s="2"/>
+      <c r="R349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF349" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG349" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH349" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ349" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM349" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN349" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="B350" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C350" s="2"/>
+      <c r="D350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E350" s="2"/>
+      <c r="F350" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G350" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J350" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K350" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L350" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N350" s="2"/>
+      <c r="O350" s="2"/>
+      <c r="P350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q350" s="2"/>
+      <c r="R350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF350" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG350" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH350" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI350" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AJ350" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM350" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN350" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C351" s="2"/>
+      <c r="D351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E351" s="2"/>
+      <c r="F351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G351" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K351" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L351" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M351" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N351" s="2"/>
+      <c r="O351" s="2"/>
+      <c r="P351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q351" s="2"/>
+      <c r="R351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF351" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG351" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH351" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL351" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM351" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN351" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B352" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C352" s="2"/>
+      <c r="D352" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E352" s="2"/>
+      <c r="F352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K352" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L352" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M352" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N352" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O352" s="2"/>
+      <c r="P352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q352" s="2"/>
+      <c r="R352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF352" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG352" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH352" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ352" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL352" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM352" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN352" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="B353" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C353" s="2"/>
+      <c r="D353" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E353" s="2"/>
+      <c r="F353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I353" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J353" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K353" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L353" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M353" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N353" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O353" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q353" s="2"/>
+      <c r="R353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF353" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG353" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH353" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ353" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL353" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM353" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN353" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="B354" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C354" s="2"/>
+      <c r="D354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E354" s="2"/>
+      <c r="F354" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G354" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J354" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K354" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L354" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M354" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N354" s="2"/>
+      <c r="O354" s="2"/>
+      <c r="P354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q354" s="2"/>
+      <c r="R354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S354" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="T354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X354" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y354" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z354" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AA354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF354" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG354" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH354" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ354" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM354" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN354" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B355" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C355" s="2"/>
+      <c r="D355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E355" s="2"/>
+      <c r="F355" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G355" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J355" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K355" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L355" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M355" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N355" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O355" s="2"/>
+      <c r="P355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q355" s="2"/>
+      <c r="R355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF355" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG355" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH355" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ355" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM355" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN355" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B356" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C356" s="2"/>
+      <c r="D356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E356" s="2"/>
+      <c r="F356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G356" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J356" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K356" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L356" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M356" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N356" s="2"/>
+      <c r="O356" s="2"/>
+      <c r="P356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q356" s="2"/>
+      <c r="R356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF356" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG356" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH356" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ356" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM356" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN356" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B357" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C357" s="2"/>
+      <c r="D357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E357" s="2"/>
+      <c r="F357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G357" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J357" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K357" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L357" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M357" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N357" s="2"/>
+      <c r="O357" s="2"/>
+      <c r="P357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q357" s="2"/>
+      <c r="R357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF357" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG357" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH357" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ357" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM357" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN357" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B358" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C358" s="2"/>
+      <c r="D358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E358" s="2"/>
+      <c r="F358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G358" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J358" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K358" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L358" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M358" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N358" s="2"/>
+      <c r="O358" s="2"/>
+      <c r="P358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q358" s="2"/>
+      <c r="R358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF358" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG358" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH358" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ358" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM358" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN358" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B359" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C359" s="2"/>
+      <c r="D359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E359" s="2"/>
+      <c r="F359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G359" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J359" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K359" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L359" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M359" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N359" s="2"/>
+      <c r="O359" s="2"/>
+      <c r="P359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q359" s="2"/>
+      <c r="R359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF359" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG359" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH359" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ359" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM359" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN359" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B360" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C360" s="2"/>
+      <c r="D360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E360" s="2"/>
+      <c r="F360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G360" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J360" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K360" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L360" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M360" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N360" s="2"/>
+      <c r="O360" s="2"/>
+      <c r="P360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q360" s="2"/>
+      <c r="R360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF360" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG360" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH360" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI360" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AJ360" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM360" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN360" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B361" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C361" s="2"/>
+      <c r="D361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E361" s="2"/>
+      <c r="F361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G361" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K361" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L361" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M361" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N361" s="2"/>
+      <c r="O361" s="2"/>
+      <c r="P361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q361" s="2"/>
+      <c r="R361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF361" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG361" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH361" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL361" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM361" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN361" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B362" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C362" s="2"/>
+      <c r="D362" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E362" s="2"/>
+      <c r="F362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K362" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L362" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M362" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N362" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O362" s="2"/>
+      <c r="P362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q362" s="2"/>
+      <c r="R362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF362" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG362" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH362" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ362" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL362" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM362" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN362" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B363" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C363" s="2"/>
+      <c r="D363" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E363" s="2"/>
+      <c r="F363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I363" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J363" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K363" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L363" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M363" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N363" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O363" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q363" s="2"/>
+      <c r="R363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF363" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG363" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH363" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ363" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL363" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM363" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN363" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B364" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C364" s="2"/>
+      <c r="D364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E364" s="2"/>
+      <c r="F364" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G364" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J364" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K364" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L364" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M364" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N364" s="2"/>
+      <c r="O364" s="2"/>
+      <c r="P364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q364" s="2"/>
+      <c r="R364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF364" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG364" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH364" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ364" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM364" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN364" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B365" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C365" s="2"/>
+      <c r="D365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E365" s="2"/>
+      <c r="F365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G365" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J365" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K365" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L365" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M365" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N365" s="2"/>
+      <c r="O365" s="2"/>
+      <c r="P365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q365" s="2"/>
+      <c r="R365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF365" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG365" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH365" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ365" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM365" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN365" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B366" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C366" s="2"/>
+      <c r="D366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E366" s="2"/>
+      <c r="F366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G366" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J366" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K366" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L366" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M366" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N366" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O366" s="2"/>
+      <c r="P366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q366" s="2"/>
+      <c r="R366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF366" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG366" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH366" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ366" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM366" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN366" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B367" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C367" s="2"/>
+      <c r="D367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E367" s="2"/>
+      <c r="F367" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G367" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J367" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K367" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L367" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M367" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N367" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O367" s="2"/>
+      <c r="P367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q367" s="2"/>
+      <c r="R367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF367" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG367" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH367" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ367" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM367" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN367" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B368" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C368" s="2"/>
+      <c r="D368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E368" s="2"/>
+      <c r="F368" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G368" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J368" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K368" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L368" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M368" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N368" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O368" s="2"/>
+      <c r="P368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q368" s="2"/>
+      <c r="R368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF368" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG368" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH368" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM368" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN368" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B369" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C369" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="D369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E369" s="2"/>
+      <c r="F369" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J369" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K369" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L369" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M369" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N369" s="2"/>
+      <c r="O369" s="2"/>
+      <c r="P369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q369" s="2"/>
+      <c r="R369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF369" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG369" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH369" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ369" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM369" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN369" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B370" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C370" s="2"/>
+      <c r="D370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E370" s="2"/>
+      <c r="F370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G370" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M370" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N370" s="2"/>
+      <c r="O370" s="2"/>
+      <c r="P370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q370" s="2"/>
+      <c r="R370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF370" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG370" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH370" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL370" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM370" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN370" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="B371" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C371" s="2"/>
+      <c r="D371" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E371" s="2"/>
+      <c r="F371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K371" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L371" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N371" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O371" s="2"/>
+      <c r="P371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q371" s="2"/>
+      <c r="R371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF371" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH371" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ371" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL371" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN371" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B372" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C372" s="2"/>
+      <c r="D372" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E372" s="2"/>
+      <c r="F372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I372" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J372" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K372" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L372" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O372" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q372" s="2"/>
+      <c r="R372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF372" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG372" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH372" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ372" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL372" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM372" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN372" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B373" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C373" s="2"/>
+      <c r="D373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E373" s="2"/>
+      <c r="F373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J373" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K373" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L373" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N373" s="2"/>
+      <c r="O373" s="2"/>
+      <c r="P373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q373" s="2"/>
+      <c r="R373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF373" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG373" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH373" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ373" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM373" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN373" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B374" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C374" s="2"/>
+      <c r="D374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E374" s="2"/>
+      <c r="F374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G374" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J374" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K374" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L374" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M374" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N374" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O374" s="2"/>
+      <c r="P374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q374" s="2"/>
+      <c r="R374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF374" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG374" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH374" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ374" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM374" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN374" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="B375" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C375" s="2"/>
+      <c r="D375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E375" s="2"/>
+      <c r="F375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G375" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J375" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K375" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L375" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M375" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N375" s="2"/>
+      <c r="O375" s="2"/>
+      <c r="P375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q375" s="2"/>
+      <c r="R375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF375" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG375" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH375" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM375" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN375" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B376" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C376" s="2"/>
+      <c r="D376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E376" s="2"/>
+      <c r="F376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G376" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J376" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K376" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L376" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M376" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N376" s="2"/>
+      <c r="O376" s="2"/>
+      <c r="P376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q376" s="2"/>
+      <c r="R376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF376" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG376" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH376" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI376" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AJ376" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM376" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN376" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B377" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C377" s="2"/>
+      <c r="D377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E377" s="2"/>
+      <c r="F377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G377" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K377" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L377" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N377" s="2"/>
+      <c r="O377" s="2"/>
+      <c r="P377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q377" s="2"/>
+      <c r="R377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF377" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG377" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH377" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL377" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM377" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN377" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B378" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C378" s="2"/>
+      <c r="D378" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E378" s="2"/>
+      <c r="F378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G378" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K378" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L378" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N378" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O378" s="2"/>
+      <c r="P378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q378" s="2"/>
+      <c r="R378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF378" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG378" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH378" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ378" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL378" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM378" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN378" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B379" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C379" s="2"/>
+      <c r="D379" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E379" s="2"/>
+      <c r="F379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G379" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I379" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J379" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K379" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L379" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M379" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N379" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O379" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q379" s="2"/>
+      <c r="R379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF379" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG379" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH379" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ379" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL379" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM379" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN379" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B380" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C380" s="2"/>
+      <c r="D380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E380" s="2"/>
+      <c r="F380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G380" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J380" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K380" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L380" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M380" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N380" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O380" s="2"/>
+      <c r="P380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q380" s="2"/>
+      <c r="R380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X380" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y380" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z380" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF380" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG380" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH380" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ380" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM380" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN380" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="B381" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C381" s="2"/>
+      <c r="D381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E381" s="2"/>
+      <c r="F381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G381" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J381" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K381" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L381" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M381" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N381" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O381" s="2"/>
+      <c r="P381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q381" s="2"/>
+      <c r="R381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF381" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG381" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH381" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ381" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM381" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN381" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B382" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C382" s="2"/>
+      <c r="D382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E382" s="2"/>
+      <c r="F382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G382" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J382" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K382" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L382" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M382" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N382" s="2"/>
+      <c r="O382" s="2"/>
+      <c r="P382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q382" s="2"/>
+      <c r="R382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF382" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG382" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH382" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI382" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AJ382" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM382" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN382" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B383" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C383" s="2"/>
+      <c r="D383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E383" s="2"/>
+      <c r="F383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G383" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K383" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L383" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M383" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N383" s="2"/>
+      <c r="O383" s="2"/>
+      <c r="P383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q383" s="2"/>
+      <c r="R383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF383" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG383" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH383" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL383" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM383" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN383" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B384" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C384" s="2"/>
+      <c r="D384" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E384" s="2"/>
+      <c r="F384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G384" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K384" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L384" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M384" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N384" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O384" s="2"/>
+      <c r="P384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q384" s="2"/>
+      <c r="R384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF384" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG384" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH384" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ384" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL384" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM384" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN384" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B385" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C385" s="2"/>
+      <c r="D385" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E385" s="2"/>
+      <c r="F385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G385" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I385" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J385" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K385" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L385" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M385" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N385" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O385" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q385" s="2"/>
+      <c r="R385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF385" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG385" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH385" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ385" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL385" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM385" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN385" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B386" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C386" s="2"/>
+      <c r="D386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E386" s="2"/>
+      <c r="F386" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G386" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J386" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K386" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L386" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M386" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N386" s="2"/>
+      <c r="O386" s="2"/>
+      <c r="P386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q386" s="2"/>
+      <c r="R386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X386" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y386" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z386" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AA386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF386" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG386" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH386" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ386" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM386" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN386" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="B387" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C387" s="2"/>
+      <c r="D387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E387" s="2"/>
+      <c r="F387" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G387" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J387" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K387" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L387" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M387" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N387" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O387" s="2"/>
+      <c r="P387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q387" s="2"/>
+      <c r="R387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF387" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG387" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH387" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ387" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM387" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN387" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B388" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C388" s="2"/>
+      <c r="D388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E388" s="2"/>
+      <c r="F388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G388" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J388" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K388" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L388" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M388" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N388" s="2"/>
+      <c r="O388" s="2"/>
+      <c r="P388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q388" s="2"/>
+      <c r="R388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF388" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG388" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH388" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ388" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM388" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN388" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="B389" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C389" s="2"/>
+      <c r="D389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E389" s="2"/>
+      <c r="F389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G389" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J389" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K389" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L389" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M389" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N389" s="2"/>
+      <c r="O389" s="2"/>
+      <c r="P389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q389" s="2"/>
+      <c r="R389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF389" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG389" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH389" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ389" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM389" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN389" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B390" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C390" s="2"/>
+      <c r="D390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E390" s="2"/>
+      <c r="F390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G390" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J390" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K390" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L390" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M390" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N390" s="2"/>
+      <c r="O390" s="2"/>
+      <c r="P390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q390" s="2"/>
+      <c r="R390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF390" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG390" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH390" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ390" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM390" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN390" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="B391" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C391" s="2"/>
+      <c r="D391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E391" s="2"/>
+      <c r="F391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G391" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J391" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K391" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L391" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M391" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N391" s="2"/>
+      <c r="O391" s="2"/>
+      <c r="P391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q391" s="2"/>
+      <c r="R391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF391" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG391" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH391" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ391" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM391" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN391" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B392" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C392" s="2"/>
+      <c r="D392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E392" s="2"/>
+      <c r="F392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G392" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J392" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K392" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L392" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M392" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N392" s="2"/>
+      <c r="O392" s="2"/>
+      <c r="P392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q392" s="2"/>
+      <c r="R392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF392" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG392" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH392" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI392" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AJ392" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM392" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN392" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B393" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C393" s="2"/>
+      <c r="D393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E393" s="2"/>
+      <c r="F393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G393" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K393" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L393" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M393" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N393" s="2"/>
+      <c r="O393" s="2"/>
+      <c r="P393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q393" s="2"/>
+      <c r="R393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF393" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH393" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL393" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM393" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN393" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B394" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C394" s="2"/>
+      <c r="D394" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E394" s="2"/>
+      <c r="F394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G394" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K394" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L394" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M394" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N394" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O394" s="2"/>
+      <c r="P394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q394" s="2"/>
+      <c r="R394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF394" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG394" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH394" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ394" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL394" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM394" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN394" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="B395" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C395" s="2"/>
+      <c r="D395" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E395" s="2"/>
+      <c r="F395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G395" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I395" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J395" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K395" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L395" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M395" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N395" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O395" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q395" s="2"/>
+      <c r="R395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF395" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG395" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH395" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ395" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL395" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM395" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN395" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="B396" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C396" s="2"/>
+      <c r="D396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E396" s="2"/>
+      <c r="F396" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G396" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J396" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K396" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L396" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M396" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N396" s="2"/>
+      <c r="O396" s="2"/>
+      <c r="P396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q396" s="2"/>
+      <c r="R396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF396" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG396" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH396" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ396" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM396" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN396" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="B397" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C397" s="2"/>
+      <c r="D397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E397" s="2"/>
+      <c r="F397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G397" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J397" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K397" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L397" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M397" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N397" s="2"/>
+      <c r="O397" s="2"/>
+      <c r="P397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q397" s="2"/>
+      <c r="R397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF397" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG397" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH397" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ397" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM397" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN397" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B398" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C398" s="2"/>
+      <c r="D398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E398" s="2"/>
+      <c r="F398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G398" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J398" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K398" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L398" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M398" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N398" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O398" s="2"/>
+      <c r="P398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q398" s="2"/>
+      <c r="R398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF398" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG398" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH398" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ398" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM398" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN398" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="B399" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C399" s="2"/>
+      <c r="D399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E399" s="2"/>
+      <c r="F399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G399" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J399" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K399" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L399" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M399" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N399" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O399" s="2"/>
+      <c r="P399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q399" s="2"/>
+      <c r="R399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF399" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG399" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH399" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ399" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM399" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN399" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B400" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C400" s="2"/>
+      <c r="D400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E400" s="2"/>
+      <c r="F400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G400" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J400" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K400" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L400" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M400" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N400" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O400" s="2"/>
+      <c r="P400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q400" s="2"/>
+      <c r="R400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF400" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG400" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH400" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM400" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN400" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="B401" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C401" s="2"/>
+      <c r="D401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E401" s="2"/>
+      <c r="F401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G401" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J401" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K401" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="L401" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="M401" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="N401" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="O401" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="P401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q401" s="2"/>
+      <c r="R401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF401" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AG401" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH401" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ401" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM401" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN401" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14330" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14331" uniqueCount="690">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T07:40:55+00:00</t>
+    <t>2025-10-22T07:21:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2004,6 +2004,9 @@
     <t>DUIQuestionnaireResponse</t>
   </si>
   <si>
+    <t>QuestionnaireResponse conforming to the TDDUIQuestionnaireResponse profile, used to convey the evaluation</t>
+  </si>
+  <si>
     <t>Bundle.entry:DUIQuestionnaireResponse.id</t>
   </si>
   <si>
@@ -2020,6 +2023,26 @@
   </si>
   <si>
     <t>Bundle.entry:DUIQuestionnaireResponse.resource</t>
+  </si>
+  <si>
+    <t>Form
+QuestionnaireAnswers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuestionnaireResponse {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-questionnaire-response}
+</t>
+  </si>
+  <si>
+    <t>A structured set of questions and their answers</t>
+  </si>
+  <si>
+    <t>A structured set of questions and their answers. The questions are ordered and grouped into coherent subsets, corresponding to the structure of the grouping of the questionnaire being responded to.</t>
+  </si>
+  <si>
+    <t>The QuestionnaireResponse contains enough information about the questions asked and their organization that it can be interpreted somewhat independently from the Questionnaire it is based on.  I.e. You don't need access to the Questionnaire in order to extract basic information from a QuestionnaireResponse.</t>
+  </si>
+  <si>
+    <t>Observation[moodCode=EVN]</t>
   </si>
   <si>
     <t>Bundle.entry:DUIQuestionnaireResponse.search</t>
@@ -2437,7 +2460,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -44189,7 +44212,7 @@
         <v>145</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>176</v>
+        <v>646</v>
       </c>
       <c r="M369" t="s" s="2">
         <v>177</v>
@@ -44272,7 +44295,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>182</v>
@@ -44384,7 +44407,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>183</v>
@@ -44498,7 +44521,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>184</v>
@@ -44614,7 +44637,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>185</v>
@@ -44726,7 +44749,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>188</v>
@@ -44840,18 +44863,18 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
-        <v>77</v>
+        <v>653</v>
       </c>
       <c r="E375" s="2"/>
       <c r="F375" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G375" t="s" s="2">
         <v>87</v>
@@ -44863,18 +44886,20 @@
         <v>77</v>
       </c>
       <c r="J375" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>193</v>
+        <v>654</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>194</v>
+        <v>655</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N375" s="2"/>
+        <v>656</v>
+      </c>
+      <c r="N375" t="s" s="2">
+        <v>657</v>
+      </c>
       <c r="O375" s="2"/>
       <c r="P375" t="s" s="2">
         <v>77</v>
@@ -44941,7 +44966,7 @@
         <v>77</v>
       </c>
       <c r="AL375" t="s" s="2">
-        <v>77</v>
+        <v>658</v>
       </c>
       <c r="AM375" t="s" s="2">
         <v>77</v>
@@ -44952,7 +44977,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>196</v>
@@ -45064,7 +45089,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>200</v>
@@ -45176,7 +45201,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>201</v>
@@ -45290,7 +45315,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>202</v>
@@ -45406,7 +45431,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>203</v>
@@ -45520,7 +45545,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>209</v>
@@ -45634,7 +45659,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>214</v>
@@ -45645,7 +45670,7 @@
       </c>
       <c r="E382" s="2"/>
       <c r="F382" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G382" t="s" s="2">
         <v>87</v>
@@ -45746,7 +45771,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>218</v>
@@ -45858,7 +45883,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>219</v>
@@ -45972,7 +45997,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>220</v>
@@ -46088,7 +46113,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>221</v>
@@ -46132,7 +46157,7 @@
         <v>77</v>
       </c>
       <c r="S386" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="T386" t="s" s="2">
         <v>77</v>
@@ -46200,7 +46225,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>226</v>
@@ -46314,7 +46339,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>230</v>
@@ -46426,7 +46451,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>233</v>
@@ -46538,7 +46563,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>235</v>
@@ -46650,7 +46675,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>238</v>
@@ -46762,7 +46787,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>241</v>
@@ -46874,7 +46899,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>245</v>
@@ -46986,7 +47011,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>246</v>
@@ -47100,7 +47125,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>247</v>
@@ -47216,7 +47241,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>248</v>
@@ -47328,7 +47353,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>251</v>
@@ -47440,7 +47465,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>254</v>
@@ -47554,7 +47579,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>258</v>
@@ -47668,7 +47693,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>262</v>
@@ -47782,10 +47807,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" t="s" s="2">
@@ -47808,19 +47833,19 @@
         <v>88</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="M401" t="s" s="2">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="N401" t="s" s="2">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="O401" t="s" s="2">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="P401" t="s" s="2">
         <v>77</v>
@@ -47869,7 +47894,7 @@
         <v>77</v>
       </c>
       <c r="AF401" t="s" s="2">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="AG401" t="s" s="2">
         <v>78</v>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:21:52+00:00</t>
+    <t>2025-10-22T14:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/361-Flux-Mise-à-jour-du-flux-1/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:35:45+00:00</t>
+    <t>2025-10-23T08:42:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
